--- a/LubanTmpl/Datas/__tables__.xlsx
+++ b/LubanTmpl/Datas/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Thirds\XIHFrameWork\LubanTmpl\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\XIHFrameWork\LubanTmpl\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AB61CD-B7B7-4067-A24B-3C8EA0FF59A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203C6A3B-6E6C-4FE8-A542-28007E250590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21645" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -133,6 +133,17 @@
       </rPr>
       <t>.xlsx</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio.xlsx</t>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbAudio</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -497,22 +508,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -579,7 +590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -602,7 +613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -614,6 +625,20 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/LubanTmpl/Datas/__tables__.xlsx
+++ b/LubanTmpl/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\XIHFrameWork\LubanTmpl\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Thirds\XIHFrameWork\LubanTmpl\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203C6A3B-6E6C-4FE8-A542-28007E250590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49F87AC-18E4-49B5-90BE-8879F5F94FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27210" yWindow="1620" windowWidth="28830" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,19 +511,19 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.3984375" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -613,7 +613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -627,7 +627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
